--- a/registrations.xlsx
+++ b/registrations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Vaddi</t>
+  </si>
+  <si>
+    <t>plot no 106,street no 3,miyapur,new colony</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2025-12-11 00:19:19</t>
   </si>
 </sst>
 </file>
@@ -83,11 +98,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.13671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.66796875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -123,6 +146,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
